--- a/data/methodcalls-vs-duration.xlsx
+++ b/data/methodcalls-vs-duration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>TAKEN FROM coremk_lw</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>UDPATED 20180301</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +146,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,7 +162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -164,22 +172,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,20 +526,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="A20:C36"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -533,7 +550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>177175970</v>
       </c>
@@ -543,8 +560,12 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>177022467</v>
       </c>
@@ -555,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>155138815</v>
       </c>
@@ -566,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>128406243</v>
       </c>
@@ -577,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>127593461</v>
       </c>
@@ -588,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>64069432</v>
       </c>
@@ -599,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>60959777</v>
       </c>
@@ -610,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>38728800</v>
       </c>
@@ -621,7 +642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>11299184</v>
       </c>
@@ -632,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>9955984</v>
       </c>
@@ -643,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>9566200</v>
       </c>
@@ -654,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>7738400</v>
       </c>
@@ -665,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>6276100</v>
       </c>
@@ -676,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>5372784</v>
       </c>
@@ -734,105 +755,105 @@
         <v>3543519.4</v>
       </c>
       <c r="D21" t="str">
-        <f>C3</f>
+        <f t="shared" ref="D21:D27" si="0">C3</f>
         <v>CoreMain.iterate</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
-        <f>B4/50</f>
+        <f t="shared" ref="A22:A36" si="1">B4/50</f>
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <f>A4/B4</f>
+        <f t="shared" ref="B22:B36" si="2">A4/B4</f>
         <v>1770224.67</v>
       </c>
       <c r="D22" t="str">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>CoreListJoinA.core_bench_list</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
-        <f t="shared" ref="A23:A37" si="0">B5/50</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" ref="B23:B37" si="1">A5/B5</f>
+        <f t="shared" si="2"/>
         <v>1034258.7666666667</v>
       </c>
       <c r="D23" t="str">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>CoreListJoinA.core_list_mergesort</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
+        <f t="shared" si="1"/>
+        <v>111.34</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="2"/>
+        <v>23065.608586312195</v>
+      </c>
+      <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>111.34</v>
-      </c>
-      <c r="B24" s="3">
-        <f t="shared" si="1"/>
-        <v>23065.608586312195</v>
-      </c>
-      <c r="D24" t="str">
-        <f>C6</f>
         <v>CoreListJoinA$CmpComplex.compare</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
+        <f t="shared" si="1"/>
+        <v>222.68</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>11459.804293156098</v>
+      </c>
+      <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>222.68</v>
-      </c>
-      <c r="B25" s="3">
-        <f t="shared" si="1"/>
-        <v>11459.804293156098</v>
-      </c>
-      <c r="D25" t="str">
-        <f>C7</f>
         <v>CoreListJoinA$CmpComplex.calc_func</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>320347.15999999997</v>
+      </c>
+      <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B26" s="3">
-        <f t="shared" si="1"/>
-        <v>320347.15999999997</v>
-      </c>
-      <c r="D26" t="str">
-        <f>C8</f>
         <v>CoreMatrix.core_bench_matrix</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="2"/>
+        <v>304798.88500000001</v>
+      </c>
+      <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <f t="shared" si="1"/>
-        <v>304798.88500000001</v>
-      </c>
-      <c r="D27" t="str">
-        <f>C9</f>
         <v>CoreState.core_bench_state</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>756.421875</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C23:C37" si="2">C10</f>
+        <f>C10</f>
         <v>CoreState.core_state_transition</v>
       </c>
       <c r="G28" t="s">
@@ -841,15 +862,15 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>773.91671232876718</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="2"/>
+        <f>C11</f>
         <v>CoreUtil.crcu16</v>
       </c>
       <c r="G29" t="s">
@@ -858,15 +879,15 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>584</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340.95835616438359</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="2"/>
+        <f>C12</f>
         <v>CoreUtil.crcu8</v>
       </c>
       <c r="G30" t="s">
@@ -875,15 +896,15 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>928.757281553398</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="2"/>
+        <f>C13</f>
         <v>CoreListJoinA.core_list_find</v>
       </c>
       <c r="G31" t="s">
@@ -892,15 +913,15 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3920</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.481632653061226</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="2"/>
+        <f>C14</f>
         <v>CoreState.ee_isdigit_lightweight</v>
       </c>
       <c r="G32" t="s">
@@ -909,11 +930,11 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7845.125</v>
       </c>
       <c r="D33" t="str">
@@ -923,11 +944,11 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1678.9949999999999</v>
       </c>
       <c r="D34" t="str">
@@ -937,15 +958,15 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208.32</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f>C17</f>
         <v>CoreListJoinA$CmpIdx.compare</v>
       </c>
       <c r="G35" t="s">
@@ -954,11 +975,11 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3438</v>
       </c>
       <c r="D36" t="str">

--- a/data/methodcalls-vs-duration.xlsx
+++ b/data/methodcalls-vs-duration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>TAKEN FROM coremk_lw</t>
   </si>
@@ -51,9 +51,6 @@
     <t>CoreUtil.crcu16</t>
   </si>
   <si>
-    <t>CoreUtil.crcu8</t>
-  </si>
-  <si>
     <t>CoreListJoinA.core_list_find</t>
   </si>
   <si>
@@ -93,7 +90,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>UDPATED 20180301</t>
+    <t>UDPATED 20180305</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,8 +159,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,19 +183,21 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -541,18 +542,18 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>177175970</v>
+        <v>176197770</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -561,13 +562,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>177022467</v>
+        <v>176050967</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -578,7 +579,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>155138815</v>
+        <v>154549215</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -589,7 +590,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>128406243</v>
+        <v>127816643</v>
       </c>
       <c r="B6">
         <v>5567</v>
@@ -600,7 +601,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>127593461</v>
+        <v>127003861</v>
       </c>
       <c r="B7">
         <v>11134</v>
@@ -611,7 +612,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>64069432</v>
+        <v>64002432</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -622,7 +623,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>60959777</v>
+        <v>60530977</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -644,7 +645,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>11299184</v>
+        <v>10320984</v>
       </c>
       <c r="B11">
         <v>14600</v>
@@ -655,10 +656,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>9955984</v>
+        <v>9566200</v>
       </c>
       <c r="B12">
-        <v>29200</v>
+        <v>10300</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -666,10 +667,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>9566200</v>
+        <v>7738400</v>
       </c>
       <c r="B13">
-        <v>10300</v>
+        <v>196000</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -677,10 +678,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>7738400</v>
+        <v>6276100</v>
       </c>
       <c r="B14">
-        <v>196000</v>
+        <v>800</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -688,10 +689,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>6276100</v>
+        <v>4943984</v>
       </c>
       <c r="B15">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -699,10 +700,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>5372784</v>
+        <v>1666560</v>
       </c>
       <c r="B16">
-        <v>3200</v>
+        <v>10416</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -710,40 +711,29 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>1666560</v>
+        <v>1375200</v>
       </c>
       <c r="B17">
-        <v>10416</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>1375200</v>
-      </c>
-      <c r="B18">
-        <v>400</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="19" spans="1:7" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -752,7 +742,7 @@
       </c>
       <c r="B21" s="3">
         <f>A3/50</f>
-        <v>3543519.4</v>
+        <v>3523955.4</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ref="D21:D27" si="0">C3</f>
@@ -766,7 +756,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ref="B22:B36" si="2">A4/B4</f>
-        <v>1770224.67</v>
+        <v>1760509.67</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -780,7 +770,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" si="2"/>
-        <v>1034258.7666666667</v>
+        <v>1030328.1</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -794,7 +784,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" si="2"/>
-        <v>23065.608586312195</v>
+        <v>22959.698760553259</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -808,7 +798,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="2"/>
-        <v>11459.804293156098</v>
+        <v>11406.84938027663</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -822,7 +812,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="2"/>
-        <v>320347.15999999997</v>
+        <v>320012.15999999997</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -836,7 +826,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="2"/>
-        <v>304798.88500000001</v>
+        <v>302654.88500000001</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -857,7 +847,7 @@
         <v>CoreState.core_state_transition</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -867,123 +857,106 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" si="2"/>
-        <v>773.91671232876718</v>
+        <v>706.91671232876718</v>
       </c>
       <c r="C29" t="str">
         <f>C11</f>
         <v>CoreUtil.crcu16</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
-        <f t="shared" si="1"/>
-        <v>584</v>
+        <f>B12/50</f>
+        <v>206</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="2"/>
-        <v>340.95835616438359</v>
+        <f>A12/B12</f>
+        <v>928.757281553398</v>
       </c>
       <c r="C30" t="str">
         <f>C12</f>
-        <v>CoreUtil.crcu8</v>
+        <v>CoreListJoinA.core_list_find</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
-        <f t="shared" si="1"/>
-        <v>206</v>
+        <f>B13/50</f>
+        <v>3920</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="2"/>
-        <v>928.757281553398</v>
+        <f>A13/B13</f>
+        <v>39.481632653061226</v>
       </c>
       <c r="C31" t="str">
         <f>C13</f>
-        <v>CoreListJoinA.core_list_find</v>
+        <v>CoreState.ee_isdigit_lightweight</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
-        <f t="shared" si="1"/>
-        <v>3920</v>
+        <f>B14/50</f>
+        <v>16</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="2"/>
-        <v>39.481632653061226</v>
-      </c>
-      <c r="C32" t="str">
+        <f>A14/B14</f>
+        <v>7845.125</v>
+      </c>
+      <c r="D32" t="str">
         <f>C14</f>
-        <v>CoreState.ee_isdigit_lightweight</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
+        <v>CoreMatrix.matrix_sum</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>B15/50</f>
+        <v>64</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="2"/>
-        <v>7845.125</v>
+        <f>A15/B15</f>
+        <v>1544.9949999999999</v>
       </c>
       <c r="D33" t="str">
         <f>C15</f>
-        <v>CoreMatrix.matrix_sum</v>
+        <v>CoreUtil.crcu32</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f>B16/50</f>
+        <v>208.32</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="2"/>
-        <v>1678.9949999999999</v>
-      </c>
-      <c r="D34" t="str">
+        <f>A16/B16</f>
+        <v>160</v>
+      </c>
+      <c r="C34" t="str">
         <f>C16</f>
-        <v>CoreUtil.crcu32</v>
+        <v>CoreListJoinA$CmpIdx.compare</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3">
-        <f t="shared" si="1"/>
-        <v>208.32</v>
+        <f>B17/50</f>
+        <v>8</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="C35" t="str">
+        <f>A17/B17</f>
+        <v>3438</v>
+      </c>
+      <c r="D35" t="str">
         <f>C17</f>
-        <v>CoreListJoinA$CmpIdx.compare</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B36" s="3">
-        <f t="shared" si="2"/>
-        <v>3438</v>
-      </c>
-      <c r="D36" t="str">
-        <f>C18</f>
         <v>CoreMatrix.matrix_add_const</v>
       </c>
     </row>

--- a/data/methodcalls-vs-duration.xlsx
+++ b/data/methodcalls-vs-duration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>TAKEN FROM coremk_lw</t>
   </si>
@@ -36,9 +36,6 @@
     <t>CoreListJoinA$CmpComplex.compare</t>
   </si>
   <si>
-    <t>CoreListJoinA$CmpComplex.calc_func</t>
-  </si>
-  <si>
     <t>CoreMatrix.core_bench_matrix</t>
   </si>
   <si>
@@ -90,7 +87,13 @@
     <t>x</t>
   </si>
   <si>
-    <t>UDPATED 20180305</t>
+    <t>CoreListJoinA.calc_func</t>
+  </si>
+  <si>
+    <t>Before switching to coremk_ch2 as main version, these were not inlined</t>
+  </si>
+  <si>
+    <t>UDPATED 20180327</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,8 +162,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,7 +220,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -191,6 +228,23 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -198,6 +252,23 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,33 +598,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>176197770</v>
+        <v>143164482</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -562,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>176050967</v>
+        <v>143013479</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -577,9 +648,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>154549215</v>
+        <v>121658327</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -587,52 +658,55 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="M6">
         <v>127816643</v>
       </c>
-      <c r="B6">
+      <c r="N6">
         <v>5567</v>
       </c>
-      <c r="C6" t="s">
+      <c r="O6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>127003861</v>
+        <v>116110440</v>
       </c>
       <c r="B7">
         <v>11134</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>64002432</v>
+        <v>63360132</v>
       </c>
       <c r="B8">
         <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>60530977</v>
+        <v>50182384</v>
       </c>
       <c r="B9">
         <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>38728800</v>
       </c>
@@ -640,10 +714,10 @@
         <v>51200</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10320984</v>
       </c>
@@ -651,10 +725,10 @@
         <v>14600</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>9566200</v>
       </c>
@@ -662,10 +736,10 @@
         <v>10300</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>7738400</v>
       </c>
@@ -673,21 +747,21 @@
         <v>196000</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>6276100</v>
+        <v>5633800</v>
       </c>
       <c r="B14">
         <v>800</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>4943984</v>
       </c>
@@ -695,18 +769,18 @@
         <v>3200</v>
       </c>
       <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="M16">
+        <v>1666560</v>
+      </c>
+      <c r="N16">
+        <v>10416</v>
+      </c>
+      <c r="O16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>1666560</v>
-      </c>
-      <c r="B16">
-        <v>10416</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -717,23 +791,23 @@
         <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -742,7 +816,7 @@
       </c>
       <c r="B21" s="3">
         <f>A3/50</f>
-        <v>3523955.4</v>
+        <v>2863289.64</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ref="D21:D27" si="0">C3</f>
@@ -751,12 +825,12 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
-        <f t="shared" ref="A22:A36" si="1">B4/50</f>
+        <f t="shared" ref="A22:A29" si="1">B4/50</f>
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ref="B22:B36" si="2">A4/B4</f>
-        <v>1760509.67</v>
+        <f t="shared" ref="B22:B29" si="2">A4/B4</f>
+        <v>1430134.79</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -770,7 +844,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" si="2"/>
-        <v>1030328.1</v>
+        <v>811055.51333333331</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -780,15 +854,15 @@
     <row r="24" spans="1:7">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
-        <v>111.34</v>
-      </c>
-      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="e">
         <f t="shared" si="2"/>
-        <v>22959.698760553259</v>
-      </c>
-      <c r="D24" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
-        <v>CoreListJoinA$CmpComplex.compare</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -798,11 +872,11 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="2"/>
-        <v>11406.84938027663</v>
+        <v>10428.456978624034</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>CoreListJoinA$CmpComplex.calc_func</v>
+        <v>CoreListJoinA.calc_func</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -812,7 +886,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="2"/>
-        <v>320012.15999999997</v>
+        <v>316800.65999999997</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -826,7 +900,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="2"/>
-        <v>302654.88500000001</v>
+        <v>250911.92</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -847,7 +921,7 @@
         <v>CoreState.core_state_transition</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -864,16 +938,16 @@
         <v>CoreUtil.crcu16</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
-        <f>B12/50</f>
+        <f t="shared" ref="A30:A35" si="3">B12/50</f>
         <v>206</v>
       </c>
       <c r="B30" s="3">
-        <f>A12/B12</f>
+        <f t="shared" ref="B30:B35" si="4">A12/B12</f>
         <v>928.757281553398</v>
       </c>
       <c r="C30" t="str">
@@ -881,16 +955,16 @@
         <v>CoreListJoinA.core_list_find</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
-        <f>B13/50</f>
+        <f t="shared" si="3"/>
         <v>3920</v>
       </c>
       <c r="B31" s="3">
-        <f>A13/B13</f>
+        <f t="shared" si="4"/>
         <v>39.481632653061226</v>
       </c>
       <c r="C31" t="str">
@@ -898,17 +972,17 @@
         <v>CoreState.ee_isdigit_lightweight</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
-        <f>B14/50</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B32" s="3">
-        <f>A14/B14</f>
-        <v>7845.125</v>
+        <f t="shared" si="4"/>
+        <v>7042.25</v>
       </c>
       <c r="D32" t="str">
         <f>C14</f>
@@ -917,11 +991,11 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
-        <f>B15/50</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B33" s="3">
-        <f>A15/B15</f>
+        <f t="shared" si="4"/>
         <v>1544.9949999999999</v>
       </c>
       <c r="D33" t="str">
@@ -931,28 +1005,28 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
-        <f>B16/50</f>
-        <v>208.32</v>
-      </c>
-      <c r="B34" s="3">
-        <f>A16/B16</f>
-        <v>160</v>
-      </c>
-      <c r="C34" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34">
         <f>C16</f>
-        <v>CoreListJoinA$CmpIdx.compare</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3">
-        <f>B17/50</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B35" s="3">
-        <f>A17/B17</f>
+        <f t="shared" si="4"/>
         <v>3438</v>
       </c>
       <c r="D35" t="str">

--- a/data/methodcalls-vs-duration.xlsx
+++ b/data/methodcalls-vs-duration.xlsx
@@ -162,8 +162,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,7 +222,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -245,6 +247,7 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -269,6 +272,7 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,7 +605,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -874,8 +878,8 @@
         <f t="shared" si="2"/>
         <v>10428.456978624034</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
+      <c r="C25" t="str">
+        <f>C7</f>
         <v>CoreListJoinA.calc_func</v>
       </c>
     </row>

--- a/data/methodcalls-vs-duration.xlsx
+++ b/data/methodcalls-vs-duration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,8 +162,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -222,7 +226,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -248,6 +252,8 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -273,6 +279,8 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,7 +613,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1002,7 +1010,7 @@
         <f t="shared" si="4"/>
         <v>1544.9949999999999</v>
       </c>
-      <c r="D33" t="str">
+      <c r="C33" t="str">
         <f>C15</f>
         <v>CoreUtil.crcu32</v>
       </c>
